--- a/biology/Botanique/Apeiba/Apeiba.xlsx
+++ b/biology/Botanique/Apeiba/Apeiba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apeiba est un genre d'arbres originaire des forêts néotropicales[2],[3], appartenant à la famille des Malvaceae (APG III), ou anciennement des Tiliaceae (Cronquist), et dont l'espèce type est Apeiba tibourbou[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apeiba est un genre d'arbres originaire des forêts néotropicales appartenant à la famille des Malvaceae (APG III), ou anciennement des Tiliaceae (Cronquist), et dont l'espèce type est Apeiba tibourbou.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les graines sont disséminées par des oiseaux et les grands primates (zoochorie) en Colombie[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines sont disséminées par des oiseaux et les grands primates (zoochorie) en Colombie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces valides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (12 juin 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (12 juin 2022) :
 Apeiba albiflora Ducke
 Apeiba echinata Gaertn.
 Apeiba emarginata Lam.
@@ -560,7 +576,7 @@
 Apeiba uittienii Jans.-Jac. &amp; Westra
 Aubletia ferruginea Ruiz &amp; Pav.
 Aubletia petouma Willd., 1799
-Selon The Plant List            (30/01/2021)[6] :
+Selon The Plant List            (30/01/2021) :
 Apeiba albiflora Ducke
 Apeiba discolor (Spreng.) G.Don
 Apeiba glabra Aubl.
@@ -599,9 +615,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « APEIBA. (Tabula 115.) 
 CAL. Perianthium monophyllum, quinquepartitum, laciniis oblongis, acutis, marginibus craſſis, extus piloſis, rufefcentibus, intùs luteis, deciduis.
 COR. Petala quinque, ſubrotunda, undata, fimbriata, unguiculata, crocea, receptaculo germinis infrà ſtamina inſerta. 
